--- a/biology/Médecine/Louis_Mansuy/Louis_Mansuy.xlsx
+++ b/biology/Médecine/Louis_Mansuy/Louis_Mansuy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Mansuy, né le 2 mars 1909[1] à Lyon et mort le 16 novembre 1988 à Bron, est un neurochirurgien français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Mansuy, né le 2 mars 1909 à Lyon et mort le 16 novembre 1988 à Bron, est un neurochirurgien français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils d'Eugène Mansuy (1878 - 1966), conseiller général du canton de Lyon-VI, adjoint au maire de Lyon et administrateur de la foire de Lyon[2] ; Eugène Mansuy, comme son fils, est inhumé à Beynost[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils d'Eugène Mansuy (1878 - 1966), conseiller général du canton de Lyon-VI, adjoint au maire de Lyon et administrateur de la foire de Lyon ; Eugène Mansuy, comme son fils, est inhumé à Beynost.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Louis Mansuy, L'Hypertension intracrânienne dans les tumeurs cérébrales pathogénie, traitement chirurgical palliatif, 1937.</t>
         </is>
